--- a/data/trans_camb/POLIPATOLOGIA_5-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,3</t>
+          <t>-0,4; 3,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,61</t>
+          <t>-0,21; 3,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,14</t>
+          <t>5,51; 10,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,61</t>
+          <t>3,08; 8,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,17</t>
+          <t>4,69; 10,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 15,74</t>
+          <t>9,7; 15,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,26</t>
+          <t>1,95; 5,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,35</t>
+          <t>2,76; 6,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,47</t>
+          <t>8,45; 12,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 184,21</t>
+          <t>-13,95; 200,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 226,15</t>
+          <t>-11,41; 203,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>153,21; 599,89</t>
+          <t>158,0; 625,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,77; 309,11</t>
+          <t>58,6; 302,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,76; 357,81</t>
+          <t>92,58; 355,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>191,33; 565,52</t>
+          <t>197,49; 587,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,38; 207,41</t>
+          <t>48,92; 205,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,73; 260,92</t>
+          <t>72,8; 242,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>218,1; 514,89</t>
+          <t>223,52; 520,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,51</t>
+          <t>-1,75; 1,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,0</t>
+          <t>-2,17; 1,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,36</t>
+          <t>-0,51; 5,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,8</t>
+          <t>0,66; 5,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,58</t>
+          <t>0,32; 5,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 12,34</t>
+          <t>7,54; 12,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,18</t>
+          <t>0,13; 3,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,71</t>
+          <t>-0,34; 2,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,83</t>
+          <t>1,76; 7,85</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,27; 50,37</t>
+          <t>-39,5; 59,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 34,68</t>
+          <t>-47,26; 37,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 167,13</t>
+          <t>-5,58; 174,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 129,1</t>
+          <t>8,61; 110,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 115,83</t>
+          <t>2,6; 117,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>102,34; 262,74</t>
+          <t>105,39; 274,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 80,32</t>
+          <t>2,22; 74,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 67,11</t>
+          <t>-4,53; 67,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,38; 186,53</t>
+          <t>51,45; 191,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,54</t>
+          <t>-1,84; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,66</t>
+          <t>-2,3; 1,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,53</t>
+          <t>1,07; 6,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,94</t>
+          <t>-4,0; 2,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,31</t>
+          <t>-4,79; 1,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 54,74</t>
+          <t>2,79; 54,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,62</t>
+          <t>-2,16; 1,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,83</t>
+          <t>-2,8; 0,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 40,98</t>
+          <t>3,55; 40,82</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,8; 114,94</t>
+          <t>-40,5; 98,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 74,77</t>
+          <t>-51,12; 79,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,97; 257,2</t>
+          <t>18,89; 231,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 23,62</t>
+          <t>-34,71; 26,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 16,26</t>
+          <t>-42,02; 18,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,39; 633,58</t>
+          <t>25,19; 584,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 27,84</t>
+          <t>-27,46; 27,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 15,15</t>
+          <t>-35,82; 17,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,92; 639,98</t>
+          <t>49,98; 784,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,14</t>
+          <t>-1,58; 1,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,59</t>
+          <t>-2,07; 1,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,63</t>
+          <t>2,68; 6,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,79</t>
+          <t>1,43; 6,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,64</t>
+          <t>1,16; 6,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,66</t>
+          <t>6,07; 12,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,76</t>
+          <t>0,75; 3,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,48</t>
+          <t>0,41; 3,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,31</t>
+          <t>5,58; 9,26</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 71,49</t>
+          <t>-34,47; 63,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 53,57</t>
+          <t>-44,82; 46,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,51; 220,74</t>
+          <t>56,73; 229,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,91; 112,72</t>
+          <t>17,29; 111,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,18; 109,55</t>
+          <t>14,78; 104,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>84,28; 210,43</t>
+          <t>72,46; 206,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,11; 77,52</t>
+          <t>12,04; 79,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,21; 72,1</t>
+          <t>6,79; 78,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>91,28; 195,73</t>
+          <t>88,79; 186,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,33</t>
+          <t>-0,61; 1,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,98</t>
+          <t>-0,74; 0,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,76</t>
+          <t>2,82; 5,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,54</t>
+          <t>1,81; 4,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,55</t>
+          <t>1,66; 4,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,92; 27,99</t>
+          <t>8,92; 29,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,59</t>
+          <t>0,93; 2,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,48</t>
+          <t>0,75; 2,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,53; 17,34</t>
+          <t>6,48; 18,45</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 45,07</t>
+          <t>-16,27; 44,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 31,12</t>
+          <t>-20,1; 30,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>73,12; 188,38</t>
+          <t>78,76; 191,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,72; 74,38</t>
+          <t>24,02; 71,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>22,99; 75,2</t>
+          <t>21,43; 73,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>127,98; 455,81</t>
+          <t>127,37; 449,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,67; 54,64</t>
+          <t>16,33; 54,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,82; 52,58</t>
+          <t>13,87; 51,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124,74; 340,71</t>
+          <t>124,87; 367,06</t>
         </is>
       </c>
     </row>
